--- a/small-goal-generator/src/main/resources/tempExcel/special.xlsx
+++ b/small-goal-generator/src/main/resources/tempExcel/special.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\念着倒才子傻\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\one_small_goal\one_small_goal\small-goal-generator\src\main\resources\tempExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B6BE0B-3041-4EB2-A84A-18F8D307D004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F439782-A4AF-4324-B395-6833005FAD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
-    <t>aimingField</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>originalField</t>
-  </si>
-  <si>
-    <t>fieldComment</t>
-  </si>
-  <si>
-    <t>taxon</t>
-  </si>
-  <si>
     <t>MyTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +92,26 @@
   </si>
   <si>
     <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库对应实体类字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +440,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -448,87 +453,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/small-goal-generator/src/main/resources/tempExcel/special.xlsx
+++ b/small-goal-generator/src/main/resources/tempExcel/special.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\one_small_goal\one_small_goal\small-goal-generator\src\main\resources\tempExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F439782-A4AF-4324-B395-6833005FAD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42CF2AC-FEC1-4F44-B242-C430450ED146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>MyTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>数据库对应实体类字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,6 +544,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/small-goal-generator/src/main/resources/tempExcel/special.xlsx
+++ b/small-goal-generator/src/main/resources/tempExcel/special.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\one_small_goal\one_small_goal\small-goal-generator\src\main\resources\tempExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\one_small_goal\one_small_goal\small-goal-generator\src\main\resources\tempExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42CF2AC-FEC1-4F44-B242-C430450ED146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462B8B41-5F5A-44C3-8349-DC76F726BA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,76 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>MyTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年纪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,11 +51,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键111</t>
+    <t>apply_no</t>
+  </si>
+  <si>
+    <t>operation_type</t>
+  </si>
+  <si>
+    <t>operation_status</t>
+  </si>
+  <si>
+    <t>sugestion</t>
+  </si>
+  <si>
+    <t>operator_id</t>
+  </si>
+  <si>
+    <t>meeting_attachment</t>
+  </si>
+  <si>
+    <t>contract_attachment</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>经办岗意见</t>
+  </si>
+  <si>
+    <t>经办人</t>
+  </si>
+  <si>
+    <t>投决会批复文件</t>
+  </si>
+  <si>
+    <t>签署合同文件</t>
+  </si>
+  <si>
+    <t>操作类型(操作类型：1、项目提交，2、项目初审，3、项目复审，4、信息确认，5、投决预审，6、会议投决，7、合同签约，8、项目关闭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作状态(1、已提交，2、已通过、3、未通过、4、已签约，5已关闭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprovalRequestVo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,10 +127,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -163,8 +165,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -461,104 +465,138 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
